--- a/data/changelogHistory.xlsx
+++ b/data/changelogHistory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Daten\Kryptowährung\Cake\DefiChainAnalytics\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE6D0538-5A27-40A1-8B7A-537EDFCA51EC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{462672F1-E781-479A-8214-6562B5C4F418}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,9 +46,8 @@
 Some graphics with static data are uploaded</t>
   </si>
   <si>
-    <t>Nearly same
-content as Cakedefi-Review
-uploaded</t>
+    <t>Nearly all evaluations from Cakedefi-Review.com integrated
+Adaptions made for responsive layout, especially sidebar</t>
   </si>
 </sst>
 </file>
@@ -380,7 +379,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD12"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -412,7 +411,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>44282</v>
       </c>

--- a/data/changelogHistory.xlsx
+++ b/data/changelogHistory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Daten\Kryptowährung\Cake\DefiChainAnalytics\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{462672F1-E781-479A-8214-6562B5C4F418}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3819D017-4B94-4167-8352-549B80492BF9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Date</t>
   </si>
@@ -48,6 +48,14 @@
   <si>
     <t>Nearly all evaluations from Cakedefi-Review.com integrated
 Adaptions made for responsive layout, especially sidebar</t>
+  </si>
+  <si>
+    <t>0.2.0</t>
+  </si>
+  <si>
+    <t>All graphics from Cakedefi-Review.com integrated
+Scripts are running on server and capture needed data
+First bugs are found and fixed</t>
   </si>
 </sst>
 </file>
@@ -376,10 +384,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -422,6 +430,17 @@
         <v>6</v>
       </c>
     </row>
+    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>44289</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/changelogHistory.xlsx
+++ b/data/changelogHistory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Daten\Kryptowährung\Cake\DefiChainAnalytics\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3819D017-4B94-4167-8352-549B80492BF9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{172A1036-80F8-4712-BE39-A466A7BC7B05}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -387,7 +387,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A5" sqref="A5:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/changelogHistory.xlsx
+++ b/data/changelogHistory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Daten\Kryptowährung\Cake\DefiChainAnalytics\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{172A1036-80F8-4712-BE39-A466A7BC7B05}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4471EDC2-D294-41F8-A194-9F43F470E48E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Date</t>
   </si>
@@ -56,6 +56,12 @@
     <t>All graphics from Cakedefi-Review.com integrated
 Scripts are running on server and capture needed data
 First bugs are found and fixed</t>
+  </si>
+  <si>
+    <t>0.3.0</t>
+  </si>
+  <si>
+    <t>Next testversion with all content and fixed bugs</t>
   </si>
 </sst>
 </file>
@@ -384,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD13"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -441,6 +447,17 @@
         <v>8</v>
       </c>
     </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>44293</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/changelogHistory.xlsx
+++ b/data/changelogHistory.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Daten\Kryptowährung\Cake\DefiChainAnalytics\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4471EDC2-D294-41F8-A194-9F43F470E48E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8C55B52-E4C9-474E-84EE-84854B8E7645}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Date</t>
   </si>
@@ -62,6 +62,12 @@
   </si>
   <si>
     <t>Next testversion with all content and fixed bugs</t>
+  </si>
+  <si>
+    <t>1.0.0</t>
+  </si>
+  <si>
+    <t>First official release of DefiChain-Analytics</t>
   </si>
 </sst>
 </file>
@@ -390,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -458,6 +464,17 @@
         <v>10</v>
       </c>
     </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>44295</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/changelogHistory.xlsx
+++ b/data/changelogHistory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Daten\Kryptowährung\Cake\DefiChainAnalytics\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8C55B52-E4C9-474E-84EE-84854B8E7645}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B75CCDC-3E6B-4E78-829B-5D05201EC3E5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -68,6 +68,14 @@
   </si>
   <si>
     <t>First official release of DefiChain-Analytics</t>
+  </si>
+  <si>
+    <t>1.0.1</t>
+  </si>
+  <si>
+    <t>Two small bugfixes:
+- Selection in dropdown menu cannot be deleted
+- RAM issue, because of double entry in token data</t>
   </si>
 </sst>
 </file>
@@ -396,10 +404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C15" sqref="C13:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -475,6 +483,17 @@
         <v>12</v>
       </c>
     </row>
+    <row r="7" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>44296</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/changelogHistory.xlsx
+++ b/data/changelogHistory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Daten\Kryptowährung\Cake\DefiChainAnalytics\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B75CCDC-3E6B-4E78-829B-5D05201EC3E5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25915A69-022C-466D-8B0D-0DF136712991}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8145" yWindow="3405" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Date</t>
   </si>
@@ -76,6 +76,20 @@
     <t>Two small bugfixes:
 - Selection in dropdown menu cannot be deleted
 - RAM issue, because of double entry in token data</t>
+  </si>
+  <si>
+    <t>1.1.0</t>
+  </si>
+  <si>
+    <t>New feature:
+- masternode evaluation added
+Improvements:
+- adaptions for better mobile representation
+- DFI collateral for ERC20-token added to overview page
+- Mouse-over functionality extended to menu items
+- bottom margin for sidebar increased, that mouse over link is not hiding menu entry
+- uniform header display and removing of some figure titels (not needed ones)
+- DAA menu item renamed to "Daily active addresses"</t>
   </si>
 </sst>
 </file>
@@ -404,17 +418,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C13:C15"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.7109375" customWidth="1"/>
+    <col min="3" max="3" width="91.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -492,6 +506,17 @@
       </c>
       <c r="C7" s="3" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>44303</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/data/changelogHistory.xlsx
+++ b/data/changelogHistory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Daten\Kryptowährung\Cake\DefiChainAnalytics\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25915A69-022C-466D-8B0D-0DF136712991}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{438D960A-D5A9-447C-8C4F-3EA5719F404E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8145" yWindow="3405" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8490" yWindow="3750" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Date</t>
   </si>
@@ -90,6 +90,14 @@
 - bottom margin for sidebar increased, that mouse over link is not hiding menu entry
 - uniform header display and removing of some figure titels (not needed ones)
 - DAA menu item renamed to "Daily active addresses"</t>
+  </si>
+  <si>
+    <t>1.1.1</t>
+  </si>
+  <si>
+    <t>Improvements:
+- renaming from "active Masternodes" to "enabled Masternodes"
+- make figure height reponsive for better viewing on mobile devices</t>
   </si>
 </sst>
 </file>
@@ -418,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -519,6 +527,17 @@
         <v>16</v>
       </c>
     </row>
+    <row r="9" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>44304</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/changelogHistory.xlsx
+++ b/data/changelogHistory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Daten\Kryptowährung\Cake\DefiChainAnalytics\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{438D960A-D5A9-447C-8C4F-3EA5719F404E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E1716D0-CE2E-4AF1-B061-2992C1EC13F6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8490" yWindow="3750" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8835" yWindow="4095" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Date</t>
   </si>
@@ -98,6 +98,13 @@
     <t>Improvements:
 - renaming from "active Masternodes" to "enabled Masternodes"
 - make figure height reponsive for better viewing on mobile devices</t>
+  </si>
+  <si>
+    <t>1.1.2</t>
+  </si>
+  <si>
+    <t>Improvements:
+- burned DFI added to overview</t>
   </si>
 </sst>
 </file>
@@ -426,10 +433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -538,6 +545,17 @@
         <v>18</v>
       </c>
     </row>
+    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>44307</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/changelogHistory.xlsx
+++ b/data/changelogHistory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Daten\Kryptowährung\Cake\DefiChainAnalytics\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E1716D0-CE2E-4AF1-B061-2992C1EC13F6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8103277B-B6F3-4704-A3BC-842E4621D020}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8835" yWindow="4095" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9180" yWindow="4440" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Date</t>
   </si>
@@ -105,6 +105,13 @@
   <si>
     <t>Improvements:
 - burned DFI added to overview</t>
+  </si>
+  <si>
+    <t>1.1.3</t>
+  </si>
+  <si>
+    <t>Improvements:
+- after successful voting of DFIP #8 the LM-countdown is no longer needed and removed</t>
   </si>
 </sst>
 </file>
@@ -433,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -556,6 +563,17 @@
         <v>20</v>
       </c>
     </row>
+    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>44310</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/changelogHistory.xlsx
+++ b/data/changelogHistory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Daten\Kryptowährung\Cake\DefiChainAnalytics\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8103277B-B6F3-4704-A3BC-842E4621D020}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FBF6E68-E769-46AC-A422-981E2C4246E7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9180" yWindow="4440" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13095" yWindow="1275" windowWidth="21600" windowHeight="16395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Date</t>
   </si>
@@ -112,6 +112,21 @@
   <si>
     <t>Improvements:
 - after successful voting of DFIP #8 the LM-countdown is no longer needed and removed</t>
+  </si>
+  <si>
+    <t>1.2.0</t>
+  </si>
+  <si>
+    <t>New feature:
+- Evaluation of Twitter followers of DefiChain
+- Evaluation of DefiChain-Income visits
+- Evaluation of portfolio app downloads
+Improvements:
+- new Logo
+- Marquee text changed (higher staking APY)
+- special DefiChain addresses now mention on explanation side of the overview
+Bugs:
+- Not working arrows in textfield of Coins addresses evaluation removed</t>
   </si>
 </sst>
 </file>
@@ -440,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -574,6 +589,17 @@
         <v>22</v>
       </c>
     </row>
+    <row r="12" spans="1:3" ht="180" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>44314</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/changelogHistory.xlsx
+++ b/data/changelogHistory.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Daten\Kryptowährung\Cake\DefiChainAnalytics\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FBF6E68-E769-46AC-A422-981E2C4246E7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94D2D37F-DF22-410E-BC95-F93217683FC1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13095" yWindow="1275" windowWidth="21600" windowHeight="16395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Date</t>
   </si>
@@ -127,6 +127,23 @@
 - special DefiChain addresses now mention on explanation side of the overview
 Bugs:
 - Not working arrows in textfield of Coins addresses evaluation removed</t>
+  </si>
+  <si>
+    <t>1.3.0</t>
+  </si>
+  <si>
+    <t>New feature:
+- Evaluation of DefiChain-Promo
+- Evaluation of DefiChain marketcap
+- Donation page added
+Improvements:
+- Rework coins graphic
+- Rework address graphic
+- Show also coingecko 24hr trading volume on DEX trading volume evaluation
+- Make DefiChain-Analytics Logo as a Link to main page
+Bugs:
+- not working time selection in coins graphic
+- range selector in masternode has no active button after loading</t>
   </si>
 </sst>
 </file>
@@ -455,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -600,6 +617,17 @@
         <v>24</v>
       </c>
     </row>
+    <row r="13" spans="1:3" ht="210" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>44329</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/changelogHistory.xlsx
+++ b/data/changelogHistory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Daten\Kryptowährung\Cake\DefiChainAnalytics\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94D2D37F-DF22-410E-BC95-F93217683FC1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D883F47-B782-4CCD-8372-1B34D966EEB9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4425" yWindow="3660" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Date</t>
   </si>
@@ -144,6 +144,16 @@
 Bugs:
 - not working time selection in coins graphic
 - range selector in masternode has no active button after loading</t>
+  </si>
+  <si>
+    <t>1.3.1</t>
+  </si>
+  <si>
+    <t>Improvements:
+- Remove some print commands to reduce log-file entries
+Bugs:
+- fix Market cap graph not updated
+- remove Copy button of donation address</t>
   </si>
 </sst>
 </file>
@@ -472,10 +482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -628,6 +638,17 @@
         <v>26</v>
       </c>
     </row>
+    <row r="14" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>44333</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/changelogHistory.xlsx
+++ b/data/changelogHistory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Daten\Kryptowährung\Cake\DefiChainAnalytics\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D883F47-B782-4CCD-8372-1B34D966EEB9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76361412-288F-4335-9EB3-C08B0BB23BBF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4425" yWindow="3660" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6855" yWindow="825" windowWidth="28800" windowHeight="18600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Date</t>
   </si>
@@ -154,6 +154,15 @@
 Bugs:
 - fix Market cap graph not updated
 - remove Copy button of donation address</t>
+  </si>
+  <si>
+    <t>1.3.2</t>
+  </si>
+  <si>
+    <t>Improvements:
+- Change line style of absolute prices on coinprice evaluation
+- Add MyDefichain as another category to masternode evaluation
+- Reduction digits of hover label on DefiChain Promo evaluation</t>
   </si>
 </sst>
 </file>
@@ -482,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -649,6 +658,17 @@
         <v>28</v>
       </c>
     </row>
+    <row r="15" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>44340</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/changelogHistory.xlsx
+++ b/data/changelogHistory.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Daten\Kryptowährung\Cake\DefiChainAnalytics\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76361412-288F-4335-9EB3-C08B0BB23BBF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{728675F8-0D2B-4899-8E52-3C59DF384F3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6855" yWindow="825" windowWidth="28800" windowHeight="18600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Date</t>
   </si>
@@ -163,6 +163,17 @@
 - Change line style of absolute prices on coinprice evaluation
 - Add MyDefichain as another category to masternode evaluation
 - Reduction digits of hover label on DefiChain Promo evaluation</t>
+  </si>
+  <si>
+    <t>1.4.0</t>
+  </si>
+  <si>
+    <t>New feature:
+- Evaluation of DefiChain-Analytics Visits
+- Evaluation of Masternode-Monitor
+Improvements:
+- Add relative change of Twitter Follower
+- Add range selector to Liquidity-Token Graph</t>
   </si>
 </sst>
 </file>
@@ -491,10 +502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -669,6 +680,17 @@
         <v>30</v>
       </c>
     </row>
+    <row r="16" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>44344</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/changelogHistory.xlsx
+++ b/data/changelogHistory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Daten\Kryptowährung\Cake\DefiChainAnalytics\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{728675F8-0D2B-4899-8E52-3C59DF384F3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF59907E-7ECE-4915-B6CD-196D00168EF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3150" yWindow="3225" windowWidth="28800" windowHeight="14655" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Date</t>
   </si>
@@ -174,6 +174,14 @@
 Improvements:
 - Add relative change of Twitter Follower
 - Add range selector to Liquidity-Token Graph</t>
+  </si>
+  <si>
+    <t>1.4.1</t>
+  </si>
+  <si>
+    <t>Bugs:
+- Visualization of coins graphic was not correct (not sorted along date)
+- Tracking of all burned DFI (manual, fees and unused block rewards)</t>
   </si>
 </sst>
 </file>
@@ -502,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -691,6 +699,17 @@
         <v>32</v>
       </c>
     </row>
+    <row r="17" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>44353</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/changelogHistory.xlsx
+++ b/data/changelogHistory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Daten\Kryptowährung\Cake\DefiChainAnalytics\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF59907E-7ECE-4915-B6CD-196D00168EF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD384AE0-E70F-4EDA-822E-83516B1DA37B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3150" yWindow="3225" windowWidth="28800" windowHeight="14655" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3495" yWindow="3570" windowWidth="28800" windowHeight="14655" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Date</t>
   </si>
@@ -182,6 +182,15 @@
     <t>Bugs:
 - Visualization of coins graphic was not correct (not sorted along date)
 - Tracking of all burned DFI (manual, fees and unused block rewards)</t>
+  </si>
+  <si>
+    <t>1.4.2</t>
+  </si>
+  <si>
+    <t>Improvements:
+- Change scaling block time
+Bugs:
+- Coins graphic with strange behavior =&gt; double entries</t>
   </si>
 </sst>
 </file>
@@ -510,10 +519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C26" sqref="C22:C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -710,6 +719,17 @@
         <v>34</v>
       </c>
     </row>
+    <row r="18" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>44359</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/changelogHistory.xlsx
+++ b/data/changelogHistory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Daten\Kryptowährung\Cake\DefiChainAnalytics\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD384AE0-E70F-4EDA-822E-83516B1DA37B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A39DD9E-9583-4D1D-A971-6919062B4200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3495" yWindow="3570" windowWidth="28800" windowHeight="14655" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Date</t>
   </si>
@@ -191,6 +191,16 @@
 - Change scaling block time
 Bugs:
 - Coins graphic with strange behavior =&gt; double entries</t>
+  </si>
+  <si>
+    <t>1.5.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New feature:
+- Evaluation of minted blocks per day
+- Evaluation of DEX price stability
+Improvements:
+- Evaluation of DefiChain-Promo user numbers </t>
   </si>
 </sst>
 </file>
@@ -519,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C26" sqref="C22:C26"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23:C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -730,6 +740,17 @@
         <v>36</v>
       </c>
     </row>
+    <row r="19" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>44363</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/changelogHistory.xlsx
+++ b/data/changelogHistory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Daten\Kryptowährung\Cake\DefiChainAnalytics\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A39DD9E-9583-4D1D-A971-6919062B4200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA977EB1-F476-49D1-9909-D0AD7FE15F5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6855" yWindow="4110" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>Date</t>
   </si>
@@ -201,6 +201,13 @@
 - Evaluation of DEX price stability
 Improvements:
 - Evaluation of DefiChain-Promo user numbers </t>
+  </si>
+  <si>
+    <t>1.5.1</t>
+  </si>
+  <si>
+    <t>Improvements:
+- show circ supply, total cupply, market cap and corresponding rank also for missing DFI token. NaN-entry handled as Zero and user gets a hint of not correct values.</t>
   </si>
 </sst>
 </file>
@@ -529,10 +536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23:C24"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -751,6 +758,17 @@
         <v>38</v>
       </c>
     </row>
+    <row r="20" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>44368</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/changelogHistory.xlsx
+++ b/data/changelogHistory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Daten\Kryptowährung\Cake\DefiChainAnalytics\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA977EB1-F476-49D1-9909-D0AD7FE15F5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE7E98E9-B426-4448-AFAE-7407A186AA07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6855" yWindow="4110" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7890" yWindow="5145" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>Date</t>
   </si>
@@ -208,6 +208,13 @@
   <si>
     <t>Improvements:
 - show circ supply, total cupply, market cap and corresponding rank also for missing DFI token. NaN-entry handled as Zero and user gets a hint of not correct values.</t>
+  </si>
+  <si>
+    <t>1.5.2</t>
+  </si>
+  <si>
+    <t>Bugs:
+- Wrong representation of links (color is standard blue instead of pink) fixed</t>
   </si>
 </sst>
 </file>
@@ -536,10 +543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -769,6 +776,17 @@
         <v>40</v>
       </c>
     </row>
+    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>44369</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/changelogHistory.xlsx
+++ b/data/changelogHistory.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Daten\Kryptowährung\Cake\DefiChainAnalytics\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE7E98E9-B426-4448-AFAE-7407A186AA07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{366BE875-B19D-48C1-B800-BF224F80DEE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7890" yWindow="5145" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3075" yWindow="3075" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>Date</t>
   </si>
@@ -215,6 +215,21 @@
   <si>
     <t>Bugs:
 - Wrong representation of links (color is standard blue instead of pink) fixed</t>
+  </si>
+  <si>
+    <t>1.5.3</t>
+  </si>
+  <si>
+    <t>Update graphics for new USDC-pool. The following evaluations were changed
+- Overview
+- Coins
+- Coinprices
+- Volume
+- Price stability
+- TVL
+- Liquidity Token
+- Fees
+- Cryptos-DAT</t>
   </si>
 </sst>
 </file>
@@ -543,10 +558,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -787,6 +802,17 @@
         <v>42</v>
       </c>
     </row>
+    <row r="22" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>44415</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/changelogHistory.xlsx
+++ b/data/changelogHistory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Daten\Kryptowährung\Cake\DefiChainAnalytics\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{366BE875-B19D-48C1-B800-BF224F80DEE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EBDD603-817A-4EAC-9690-F274C34061FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3075" yWindow="3075" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>Date</t>
   </si>
@@ -230,6 +230,20 @@
 - Liquidity Token
 - Fees
 - Cryptos-DAT</t>
+  </si>
+  <si>
+    <t>1.6.0</t>
+  </si>
+  <si>
+    <t>New feature:
+- Slippage calculation/view
+- Evaluation trading volume on hourly base
+Improvements:
+- Add locked masternodes 
+- Add Allnodes masternodes 
+- Add Nodehub.io masternodes
+Bugs:
+- Correction total supply calculation for missing values</t>
   </si>
 </sst>
 </file>
@@ -558,10 +572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -813,6 +827,17 @@
         <v>44</v>
       </c>
     </row>
+    <row r="23" spans="1:3" ht="165" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>44431</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/changelogHistory.xlsx
+++ b/data/changelogHistory.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Daten\Kryptowährung\Cake\DefiChainAnalytics\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EBDD603-817A-4EAC-9690-F274C34061FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9040BD26-5975-49A6-9E52-675C74FA9D13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7035" yWindow="3780" windowWidth="22920" windowHeight="14970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>Date</t>
   </si>
@@ -244,6 +244,18 @@
 - Add Nodehub.io masternodes
 Bugs:
 - Correction total supply calculation for missing values</t>
+  </si>
+  <si>
+    <t>1.7.0</t>
+  </si>
+  <si>
+    <t>New feature:
+- Evaluation overall TVL on DefiChain
+- Evaluation of DFX
+- Evaluation of DFI-Signal
+Improvements:
+-USDC collateral address added to explanation Crypto-DAT
+- Handling locked masternodes as separate category on overview and coin page</t>
   </si>
 </sst>
 </file>
@@ -572,10 +584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -838,6 +850,17 @@
         <v>46</v>
       </c>
     </row>
+    <row r="24" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>44471</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/changelogHistory.xlsx
+++ b/data/changelogHistory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Daten\Kryptowährung\Cake\DefiChainAnalytics\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9040BD26-5975-49A6-9E52-675C74FA9D13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7F6CA04-3D98-40C5-BEEC-B66AEE371212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7035" yWindow="3780" windowWidth="22920" windowHeight="14970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7470" yWindow="2415" windowWidth="22920" windowHeight="14970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -254,7 +254,7 @@
 - Evaluation of DFX
 - Evaluation of DFI-Signal
 Improvements:
--USDC collateral address added to explanation Crypto-DAT
+- USDC collateral address added to explanation Crypto-DAT
 - Handling locked masternodes as separate category on overview and coin page</t>
   </si>
 </sst>
@@ -587,7 +587,7 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/changelogHistory.xlsx
+++ b/data/changelogHistory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Daten\Kryptowährung\Cake\DefiChainAnalytics\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7F6CA04-3D98-40C5-BEEC-B66AEE371212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88BB8E20-F479-47C8-9995-2A9E3DEBF39D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7470" yWindow="2415" windowWidth="22920" windowHeight="14970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8250" yWindow="2340" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>Date</t>
   </si>
@@ -256,6 +256,16 @@
 Improvements:
 - USDC collateral address added to explanation Crypto-DAT
 - Handling locked masternodes as separate category on overview and coin page</t>
+  </si>
+  <si>
+    <t>1.8.0</t>
+  </si>
+  <si>
+    <t>New feature:
+- Evaluation DEX price
+Improvements:
+- Transaction evaluation now on a daily and weekly level
+- DFI-Signal with get and send message evaluation</t>
   </si>
 </sst>
 </file>
@@ -584,10 +594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -861,6 +871,17 @@
         <v>48</v>
       </c>
     </row>
+    <row r="25" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/changelogHistory.xlsx
+++ b/data/changelogHistory.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Daten\Kryptowährung\Cake\DefiChainAnalytics\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88BB8E20-F479-47C8-9995-2A9E3DEBF39D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22589C12-AE94-41BA-935C-0921B01F66AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8250" yWindow="2340" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>Date</t>
   </si>
@@ -266,6 +266,14 @@
 Improvements:
 - Transaction evaluation now on a daily and weekly level
 - DFI-Signal with get and send message evaluation</t>
+  </si>
+  <si>
+    <t>1.9.0</t>
+  </si>
+  <si>
+    <t>Improvements:
+- Vaults DFI added to Overview
+- Vaults TVL added to Overall TVL</t>
   </si>
 </sst>
 </file>
@@ -594,10 +602,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -882,6 +890,17 @@
         <v>50</v>
       </c>
     </row>
+    <row r="26" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>44540</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/changelogHistory.xlsx
+++ b/data/changelogHistory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Daten\Kryptowährung\Cake\DefiChainAnalytics\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22589C12-AE94-41BA-935C-0921B01F66AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45F11D6D-7F7D-48D9-8F2C-5CBDDC54F279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1875" windowWidth="28635" windowHeight="15525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>Date</t>
   </si>
@@ -274,6 +274,19 @@
     <t>Improvements:
 - Vaults DFI added to Overview
 - Vaults TVL added to Overall TVL</t>
+  </si>
+  <si>
+    <t>1.10.0</t>
+  </si>
+  <si>
+    <t>Improvements:
+- DFI coins in dUSD-DFI pool were added to the DEX TVL and overall TVL graph
+- DFI in vaults are now represented in the Coins evaluation
+- DFI in vaults are now represented in the Change Coins/Addresses evaluation
+- Changes in liquidity-token graph for better representation
+Bugs:
+- Avoid RAM overflow
+- Handling of bigger csv-Files (created warnings)</t>
   </si>
 </sst>
 </file>
@@ -602,10 +615,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -901,6 +914,17 @@
         <v>52</v>
       </c>
     </row>
+    <row r="27" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>44552</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/changelogHistory.xlsx
+++ b/data/changelogHistory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Daten\Kryptowährung\Cake\DefiChainAnalytics\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45F11D6D-7F7D-48D9-8F2C-5CBDDC54F279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71C11F55-FECC-4E43-BF33-1E191AD96469}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1875" windowWidth="28635" windowHeight="15525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>Date</t>
   </si>
@@ -287,6 +287,14 @@
 Bugs:
 - Avoid RAM overflow
 - Handling of bigger csv-Files (created warnings)</t>
+  </si>
+  <si>
+    <t>1.11.1</t>
+  </si>
+  <si>
+    <t>Bugs:
+- Wrong circulating supply value on overview page
+- Wrong DFI in liquidity pool on coin evaluation (missing dUSD-DFI pool)</t>
   </si>
 </sst>
 </file>
@@ -615,10 +623,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -925,6 +933,17 @@
         <v>54</v>
       </c>
     </row>
+    <row r="28" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>44552</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/changelogHistory.xlsx
+++ b/data/changelogHistory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Daten\Kryptowährung\Cake\DefiChainAnalytics\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71C11F55-FECC-4E43-BF33-1E191AD96469}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4781EF1-ABB7-4A3E-AB8C-D94F45B631B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>Date</t>
   </si>
@@ -289,12 +289,21 @@
 - Handling of bigger csv-Files (created warnings)</t>
   </si>
   <si>
-    <t>1.11.1</t>
-  </si>
-  <si>
     <t>Bugs:
 - Wrong circulating supply value on overview page
 - Wrong DFI in liquidity pool on coin evaluation (missing dUSD-DFI pool)</t>
+  </si>
+  <si>
+    <t>2.0.0</t>
+  </si>
+  <si>
+    <t>New menu entry for vaults&amp;loans added
+New feature:
+- Evaluation of vaults number
+- Evaluation of vaults TVL</t>
+  </si>
+  <si>
+    <t>1.10.1</t>
   </si>
 </sst>
 </file>
@@ -623,10 +632,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -938,10 +947,21 @@
         <v>44552</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="3" t="s">
+    </row>
+    <row r="29" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>44558</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>56</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/data/changelogHistory.xlsx
+++ b/data/changelogHistory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Daten\Kryptowährung\Cake\DefiChainAnalytics\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4781EF1-ABB7-4A3E-AB8C-D94F45B631B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30107AF4-8942-462E-8103-E543ADE20ABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>Date</t>
   </si>
@@ -304,6 +304,16 @@
   </si>
   <si>
     <t>1.10.1</t>
+  </si>
+  <si>
+    <t>New Features:
+- Evaluation of number dTokens with running loan
+- Evaluation of dToken prices (DEX vs. Oracles)
+Improvement:
+- dToken pools are now available in Liquidity Token evaluation</t>
+  </si>
+  <si>
+    <t>2.1.0</t>
   </si>
 </sst>
 </file>
@@ -632,10 +642,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -964,6 +974,17 @@
         <v>57</v>
       </c>
     </row>
+    <row r="30" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>44560</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/changelogHistory.xlsx
+++ b/data/changelogHistory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Daten\Kryptowährung\Cake\DefiChainAnalytics\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30107AF4-8942-462E-8103-E543ADE20ABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDCA98F4-A15F-4FCB-8135-B26595B68B5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>Date</t>
   </si>
@@ -314,6 +314,18 @@
   </si>
   <si>
     <t>2.1.0</t>
+  </si>
+  <si>
+    <t>2.2.0</t>
+  </si>
+  <si>
+    <t>New Features:
+- Evaluation of accumulated interests
+- Evaluation of burned DFI via vaults &amp; loans
+Improvement:
+- DFI price in dUSD added to dToken prices
+Bug:
+- Handling missing data in overall MN calculation</t>
   </si>
 </sst>
 </file>
@@ -642,10 +654,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -985,6 +997,17 @@
         <v>59</v>
       </c>
     </row>
+    <row r="31" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>44570</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/changelogHistory.xlsx
+++ b/data/changelogHistory.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Daten\Kryptowährung\Cake\DefiChainAnalytics\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDCA98F4-A15F-4FCB-8135-B26595B68B5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0F1EDC6-29C7-4F64-AD16-190DCEF117E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4290" yWindow="4290" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>Date</t>
   </si>
@@ -326,6 +326,19 @@
 - DFI price in dUSD added to dToken prices
 Bug:
 - Handling missing data in overall MN calculation</t>
+  </si>
+  <si>
+    <t>2.3.0</t>
+  </si>
+  <si>
+    <t>New Features:
+- Evaluation of the DFI emission
+- Evaluation of the used loan scheme
+- Evaluation of the community project Dobby
+Improvement:
+- Smaller changes of number representation
+Bug:
+- Correction y-axis label open interest evaluation</t>
   </si>
 </sst>
 </file>
@@ -654,10 +667,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1008,6 +1021,17 @@
         <v>62</v>
       </c>
     </row>
+    <row r="32" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>44583</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/changelogHistory.xlsx
+++ b/data/changelogHistory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Daten\Kryptowährung\Cake\DefiChainAnalytics\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0F1EDC6-29C7-4F64-AD16-190DCEF117E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3130C9A-422D-4D1E-B1B9-67B6903FAF38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4290" yWindow="4290" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <si>
     <t>Date</t>
   </si>
@@ -339,6 +339,15 @@
 - Smaller changes of number representation
 Bug:
 - Correction y-axis label open interest evaluation</t>
+  </si>
+  <si>
+    <t>Improvement:
+- Add new dTokens to the evaluations: Liquidity Token, dToken prices, Number dToken
+Bug:
+- Accessibility of legend fixed for Coin evaluation</t>
+  </si>
+  <si>
+    <t>2.3.1</t>
   </si>
 </sst>
 </file>
@@ -667,10 +676,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1032,6 +1041,17 @@
         <v>64</v>
       </c>
     </row>
+    <row r="33" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>44592</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/changelogHistory.xlsx
+++ b/data/changelogHistory.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Daten\Kryptowährung\Cake\DefiChainAnalytics\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3130C9A-422D-4D1E-B1B9-67B6903FAF38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89B694F9-2754-4AC1-B01B-75D7B01099B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5070" yWindow="2100" windowWidth="28800" windowHeight="19500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t>Date</t>
   </si>
@@ -348,6 +348,18 @@
   </si>
   <si>
     <t>2.3.1</t>
+  </si>
+  <si>
+    <t>2.4.0</t>
+  </si>
+  <si>
+    <t>New Features:
+- Evaluation dToken premium
+Improvement:
+- Burned DFI with dUSD loan payback added to evaluation "DFI Burn"
+- Some number representations were changed
+Bug:
+- correction data handling for users on DFI-Signal and Dobby</t>
   </si>
 </sst>
 </file>
@@ -676,10 +688,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1052,6 +1064,17 @@
         <v>65</v>
       </c>
     </row>
+    <row r="34" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>44598</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/changelogHistory.xlsx
+++ b/data/changelogHistory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Daten\Kryptowährung\Cake\DefiChainAnalytics\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89B694F9-2754-4AC1-B01B-75D7B01099B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36215FC1-8978-4776-BEC4-501A27D65796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5070" yWindow="2100" windowWidth="28800" windowHeight="19500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4140" yWindow="720" windowWidth="28800" windowHeight="19500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <t>Date</t>
   </si>
@@ -360,6 +360,17 @@
 - Some number representations were changed
 Bug:
 - correction data handling for users on DFI-Signal and Dobby</t>
+  </si>
+  <si>
+    <t>2.4.1</t>
+  </si>
+  <si>
+    <t>Improvement:
+- Add dUSD paid back with DFI to number dTokens
+- Rework DFI Burn to show DFI burned with dUSD payback
+Bug:
+- type hovertemplate premium
+- corrections hovertemplate number dToken</t>
   </si>
 </sst>
 </file>
@@ -688,10 +699,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1075,6 +1086,17 @@
         <v>68</v>
       </c>
     </row>
+    <row r="35" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>44599</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/changelogHistory.xlsx
+++ b/data/changelogHistory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Daten\Kryptowährung\Cake\DefiChainAnalytics\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36215FC1-8978-4776-BEC4-501A27D65796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C79DD37-F965-4D75-86E5-F683277AE431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4140" yWindow="720" windowWidth="28800" windowHeight="19500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5970" yWindow="1200" windowWidth="24555" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <si>
     <t>Date</t>
   </si>
@@ -369,8 +369,19 @@
 - Add dUSD paid back with DFI to number dTokens
 - Rework DFI Burn to show DFI burned with dUSD payback
 Bug:
-- type hovertemplate premium
+- typo hovertemplate premium
 - corrections hovertemplate number dToken</t>
+  </si>
+  <si>
+    <t>2.4.2</t>
+  </si>
+  <si>
+    <t>Improvement:
+- Show moving average values for daily active addresses evaluation
+- Update 24hr trading volume to show DEX volume via Ocean API
+Bug:
+- Number MN coins in pie chart corrected
+- MarketCap evaluation fixed, was not updated</t>
   </si>
 </sst>
 </file>
@@ -699,10 +710,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1097,6 +1108,17 @@
         <v>70</v>
       </c>
     </row>
+    <row r="36" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>44619</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/changelogHistory.xlsx
+++ b/data/changelogHistory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Daten\Kryptowährung\Cake\DefiChainAnalytics\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C79DD37-F965-4D75-86E5-F683277AE431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5FF109B-0285-423F-95EB-15EA5D9AD599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5970" yWindow="1200" windowWidth="24555" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40305" yWindow="2085" windowWidth="27285" windowHeight="16620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
   <si>
     <t>Date</t>
   </si>
@@ -382,6 +382,16 @@
 Bug:
 - Number MN coins in pie chart corrected
 - MarketCap evaluation fixed, was not updated</t>
+  </si>
+  <si>
+    <t>2.4.3</t>
+  </si>
+  <si>
+    <t>Improvement:
+- Adding new dTokens to dToken prices, dToken premium, Number dToken, Liquidity Token
+- Add dUSD to TVL Vaults evaluation
+Bug:
+- Missing part of dToken graph in 24hr trading volume</t>
   </si>
 </sst>
 </file>
@@ -710,10 +720,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1119,6 +1129,17 @@
         <v>72</v>
       </c>
     </row>
+    <row r="37" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>44624</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/changelogHistory.xlsx
+++ b/data/changelogHistory.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Daten\Kryptowährung\Cake\DefiChainAnalytics\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5FF109B-0285-423F-95EB-15EA5D9AD599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BE95A6F-2B18-48CB-A12A-2EB52B30EAAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40305" yWindow="2085" windowWidth="27285" windowHeight="16620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5310" yWindow="3195" windowWidth="27285" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <si>
     <t>Date</t>
   </si>
@@ -392,6 +392,19 @@
 - Add dUSD to TVL Vaults evaluation
 Bug:
 - Missing part of dToken graph in 24hr trading volume</t>
+  </si>
+  <si>
+    <t>2.5.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Features:
+- Evaluation of liquidity mining APR 
+- Evaluation of the circulating supply inflation
+Improvement:
+- Add dToken Pools to slippage and stability evaluation
+- Change scaling of dUSD price graph
+- Rework of DFX evaluation
+- New calculation of DFI Token </t>
   </si>
 </sst>
 </file>
@@ -720,10 +733,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43:C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1140,6 +1153,17 @@
         <v>74</v>
       </c>
     </row>
+    <row r="38" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>44633</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/changelogHistory.xlsx
+++ b/data/changelogHistory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Daten\Kryptowährung\Cake\DefiChainAnalytics\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BE95A6F-2B18-48CB-A12A-2EB52B30EAAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40533B7B-C7B7-405D-84C5-9B2C5DFF5CC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5310" yWindow="3195" windowWidth="27285" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2880" yWindow="4500" windowWidth="28800" windowHeight="12795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,20 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
   <si>
     <t>Date</t>
   </si>
@@ -405,6 +413,13 @@
 - Change scaling of dUSD price graph
 - Rework of DFX evaluation
 - New calculation of DFI Token </t>
+  </si>
+  <si>
+    <t>2.5.1</t>
+  </si>
+  <si>
+    <t>Improvement:
+- Adapt circulating supply in Overview and Coins evaluation</t>
   </si>
 </sst>
 </file>
@@ -733,10 +748,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43:C44"/>
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1164,6 +1179,17 @@
         <v>76</v>
       </c>
     </row>
+    <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>44648</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/changelogHistory.xlsx
+++ b/data/changelogHistory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Daten\Kryptowährung\Cake\DefiChainAnalytics\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40533B7B-C7B7-405D-84C5-9B2C5DFF5CC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE8D5B7E-C2FA-4094-BC43-0A90BD57AFB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2880" yWindow="4500" windowWidth="28800" windowHeight="12795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
   <si>
     <t>Date</t>
   </si>
@@ -420,6 +420,13 @@
   <si>
     <t>Improvement:
 - Adapt circulating supply in Overview and Coins evaluation</t>
+  </si>
+  <si>
+    <t>2.5.2</t>
+  </si>
+  <si>
+    <t>Improvement:
+- Add new dTokens to the evaluations: Liquidity Token, dToken prices, Number dToken</t>
   </si>
 </sst>
 </file>
@@ -748,10 +755,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="J38" sqref="J38"/>
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1190,6 +1197,17 @@
         <v>78</v>
       </c>
     </row>
+    <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>44653</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/changelogHistory.xlsx
+++ b/data/changelogHistory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Daten\Kryptowährung\Cake\DefiChainAnalytics\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE8D5B7E-C2FA-4094-BC43-0A90BD57AFB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CCD0241-58F7-48E1-B545-01EA34476FE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -426,7 +426,7 @@
   </si>
   <si>
     <t>Improvement:
-- Add new dTokens to the evaluations: Liquidity Token, dToken prices, Number dToken</t>
+- Add new dTokens to the evaluations: Liquidity Token, dToken prices, Number dToken, premium dToken, APR rates</t>
   </si>
 </sst>
 </file>
@@ -758,7 +758,7 @@
   <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1197,7 +1197,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>44653</v>
       </c>

--- a/data/changelogHistory.xlsx
+++ b/data/changelogHistory.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Daten\Kryptowährung\Cake\DefiChainAnalytics\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CCD0241-58F7-48E1-B545-01EA34476FE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C38700B-85E4-4AE8-A5E0-1C860C05D1CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
   <si>
     <t>Date</t>
   </si>
@@ -427,6 +427,13 @@
   <si>
     <t>Improvement:
 - Add new dTokens to the evaluations: Liquidity Token, dToken prices, Number dToken, premium dToken, APR rates</t>
+  </si>
+  <si>
+    <t>2.5.3</t>
+  </si>
+  <si>
+    <t>Improvement:
+- Add new dTokens to the evaluations: Price stability, Price slippage</t>
   </si>
 </sst>
 </file>
@@ -755,10 +762,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+      <selection activeCell="C44" sqref="C44:C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1208,6 +1215,17 @@
         <v>80</v>
       </c>
     </row>
+    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>44660</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/changelogHistory.xlsx
+++ b/data/changelogHistory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Daten\Kryptowährung\Cake\DefiChainAnalytics\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C38700B-85E4-4AE8-A5E0-1C860C05D1CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1B93805-E23D-4EC7-A5AB-B6D787213BCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2055" yWindow="2625" windowWidth="25575" windowHeight="15150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
   <si>
     <t>Date</t>
   </si>
@@ -434,6 +434,15 @@
   <si>
     <t>Improvement:
 - Add new dTokens to the evaluations: Price stability, Price slippage</t>
+  </si>
+  <si>
+    <t>2.5.4</t>
+  </si>
+  <si>
+    <t>Improvement:
+- Adding dETH as collateral to TVL evaluations
+Bug:
+- change API call for corret burn amounts</t>
   </si>
 </sst>
 </file>
@@ -762,10 +771,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44:C45"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1226,6 +1235,17 @@
         <v>82</v>
       </c>
     </row>
+    <row r="42" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>44664</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/changelogHistory.xlsx
+++ b/data/changelogHistory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Daten\Kryptowährung\Cake\DefiChainAnalytics\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1B93805-E23D-4EC7-A5AB-B6D787213BCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC375708-93D5-4D81-93D7-09FF39E2C162}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2055" yWindow="2625" windowWidth="25575" windowHeight="15150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
   <si>
     <t>Date</t>
   </si>
@@ -443,6 +443,14 @@
 - Adding dETH as collateral to TVL evaluations
 Bug:
 - change API call for corret burn amounts</t>
+  </si>
+  <si>
+    <t>Improvement:
+- Optimize data loading procedure
+- Add minted/burned/locked dTokens to Number dTokens evaluation</t>
+  </si>
+  <si>
+    <t>2.5.5</t>
   </si>
 </sst>
 </file>
@@ -771,10 +779,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1246,6 +1254,17 @@
         <v>84</v>
       </c>
     </row>
+    <row r="43" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>44670</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/changelogHistory.xlsx
+++ b/data/changelogHistory.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Daten\Kryptowährung\Cake\DefiChainAnalytics\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC375708-93D5-4D81-93D7-09FF39E2C162}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BB13841-F058-4E69-AFDE-5CB26F8A5F90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12090" yWindow="975" windowWidth="18570" windowHeight="15150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
   <si>
     <t>Date</t>
   </si>
@@ -451,6 +451,18 @@
   </si>
   <si>
     <t>2.5.5</t>
+  </si>
+  <si>
+    <t>3.0.0</t>
+  </si>
+  <si>
+    <t>New Features:
+- Evaluation of all CFPs
+- Evaluation of BSC-Bridge liquidity
+- Evaluation of BSC-Bridge in-/outflow
+- Evaluation of number swaps BSC-Bridge
+Improvement:
+- Add new dToken to evaluations</t>
   </si>
 </sst>
 </file>
@@ -779,10 +791,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49:C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1265,6 +1277,17 @@
         <v>85</v>
       </c>
     </row>
+    <row r="44" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>44709</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/changelogHistory.xlsx
+++ b/data/changelogHistory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Daten\Kryptowährung\Cake\DefiChainAnalytics\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BB13841-F058-4E69-AFDE-5CB26F8A5F90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6CD6407-633E-4A05-84D0-91D692E7DB6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12090" yWindow="975" windowWidth="18570" windowHeight="15150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3075" yWindow="3075" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
   <si>
     <t>Date</t>
   </si>
@@ -463,6 +463,16 @@
 - Evaluation of number swaps BSC-Bridge
 Improvement:
 - Add new dToken to evaluations</t>
+  </si>
+  <si>
+    <t>3.0.1</t>
+  </si>
+  <si>
+    <t>Improvement/Bug:
+Handling of missing data due to changed API for the following evaluations
+- 24hr trading volume working again
+- dToken number for dUSD cleaned up (wrong data due to bug in listgovs on 19th/20th May)
+- handling missing LM/Vaults DFI in circulating supply in Coins and Market Cap</t>
   </si>
 </sst>
 </file>
@@ -791,10 +801,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C44"/>
+  <dimension ref="A1:C45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49:C50"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1288,6 +1298,17 @@
         <v>88</v>
       </c>
     </row>
+    <row r="45" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>44730</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/changelogHistory.xlsx
+++ b/data/changelogHistory.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Daten\Kryptowährung\Cake\DefiChainAnalytics\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6CD6407-633E-4A05-84D0-91D692E7DB6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF12E684-8BA3-4315-8EFC-ED580CA3C899}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3075" yWindow="3075" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
   <si>
     <t>Date</t>
   </si>
@@ -473,6 +473,15 @@
 - 24hr trading volume working again
 - dToken number for dUSD cleaned up (wrong data due to bug in listgovs on 19th/20th May)
 - handling missing LM/Vaults DFI in circulating supply in Coins and Market Cap</t>
+  </si>
+  <si>
+    <t>Improvement:
+- Change scaling dUSD price in dToken prices
+Bug:
+- Adapt loading procedure to handle new data structure of 'paybackburn'</t>
+  </si>
+  <si>
+    <t>3.0.2</t>
   </si>
 </sst>
 </file>
@@ -801,10 +810,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:C46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1309,6 +1318,17 @@
         <v>90</v>
       </c>
     </row>
+    <row r="46" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>44743</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/changelogHistory.xlsx
+++ b/data/changelogHistory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Daten\Kryptowährung\Cake\DefiChainAnalytics\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF12E684-8BA3-4315-8EFC-ED580CA3C899}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66E59E4B-D2AB-432E-84BE-D10E4CD4EFCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
   <si>
     <t>Date</t>
   </si>
@@ -482,6 +482,15 @@
   </si>
   <si>
     <t>3.0.2</t>
+  </si>
+  <si>
+    <t>3.1.0</t>
+  </si>
+  <si>
+    <t>New Features:
+- Evaluation Relative part of algo to circulating dToken
+Improvement:
+- Add prices measured in dUSDT to the "dToken prices" evaluation</t>
   </si>
 </sst>
 </file>
@@ -810,10 +819,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C46"/>
+  <dimension ref="A1:C47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+      <selection activeCell="C55" sqref="C55:C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1329,6 +1338,17 @@
         <v>91</v>
       </c>
     </row>
+    <row r="47" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>44753</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/changelogHistory.xlsx
+++ b/data/changelogHistory.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Daten\Kryptowährung\Cake\DefiChainAnalytics\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66E59E4B-D2AB-432E-84BE-D10E4CD4EFCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CBD24E7-5D6A-41B5-BFDC-135B8A2868B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5985" yWindow="1365" windowWidth="24285" windowHeight="18720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
   <si>
     <t>Date</t>
   </si>
@@ -491,6 +491,16 @@
 - Evaluation Relative part of algo to circulating dToken
 Improvement:
 - Add prices measured in dUSDT to the "dToken prices" evaluation</t>
+  </si>
+  <si>
+    <t>3.2.0</t>
+  </si>
+  <si>
+    <t>Improvement:
+- Add missing dToken to evaluations
+- Add stablecoin pools to evaluations
+- Add new CFPs and a sorting selection
+- Improvements of the data handling in the background</t>
   </si>
 </sst>
 </file>
@@ -819,10 +829,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C47"/>
+  <dimension ref="A1:C48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55:C58"/>
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1349,6 +1359,17 @@
         <v>94</v>
       </c>
     </row>
+    <row r="48" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>44813</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/changelogHistory.xlsx
+++ b/data/changelogHistory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Daten\Kryptowährung\Cake\DefiChainAnalytics\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CBD24E7-5D6A-41B5-BFDC-135B8A2868B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CD0B000-33F3-49A3-9065-B9AF5F63AE65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5985" yWindow="1365" windowWidth="24285" windowHeight="18720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
   <si>
     <t>Date</t>
   </si>
@@ -501,6 +501,13 @@
 - Add stablecoin pools to evaluations
 - Add new CFPs and a sorting selection
 - Improvements of the data handling in the background</t>
+  </si>
+  <si>
+    <t>3.2.1</t>
+  </si>
+  <si>
+    <t>Improvement:
+- Add number of circulating dUSD token not locked in vaults</t>
   </si>
 </sst>
 </file>
@@ -829,10 +836,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C48"/>
+  <dimension ref="A1:C49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1370,6 +1377,17 @@
         <v>96</v>
       </c>
     </row>
+    <row r="49" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>44814</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/changelogHistory.xlsx
+++ b/data/changelogHistory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Daten\Kryptowährung\Cake\DefiChainAnalytics\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CD0B000-33F3-49A3-9065-B9AF5F63AE65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B8C99F8-7F6E-4423-830F-21B6FAA197BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8100" yWindow="2070" windowWidth="24285" windowHeight="17400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
   <si>
     <t>Date</t>
   </si>
@@ -508,6 +508,17 @@
   <si>
     <t>Improvement:
 - Add number of circulating dUSD token not locked in vaults</t>
+  </si>
+  <si>
+    <t>3.2.2</t>
+  </si>
+  <si>
+    <t>Improvement:
+Add additional parts of minted and burned dToken/dUSD to evaluation of nbDToken
+- dToken with loans in liquidation
+- algo dUSD from realized negative interest
+- dUSD burned via paid interest
+- dUSD burned via auction fee/sent to burn address</t>
   </si>
 </sst>
 </file>
@@ -836,9 +847,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C49"/>
+  <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
       <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
@@ -1388,6 +1399,17 @@
         <v>98</v>
       </c>
     </row>
+    <row r="50" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>44837</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/changelogHistory.xlsx
+++ b/data/changelogHistory.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Daten\Kryptowährung\Cake\DefiChainAnalytics\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B8C99F8-7F6E-4423-830F-21B6FAA197BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECCBC3D3-122A-4D88-ADBC-BA8B8B98F350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8100" yWindow="2070" windowWidth="24285" windowHeight="17400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
   <si>
     <t>Date</t>
   </si>
@@ -519,6 +519,13 @@
 - algo dUSD from realized negative interest
 - dUSD burned via paid interest
 - dUSD burned via auction fee/sent to burn address</t>
+  </si>
+  <si>
+    <t>3.2.3</t>
+  </si>
+  <si>
+    <t>Improvement:
+Add the dUSD amount burned via the Bot to the nbDToken evaluation</t>
   </si>
 </sst>
 </file>
@@ -847,10 +854,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C50"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1410,6 +1417,17 @@
         <v>100</v>
       </c>
     </row>
+    <row r="51" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>44849</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/changelogHistory.xlsx
+++ b/data/changelogHistory.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Daten\Kryptowährung\Cake\DefiChainAnalytics\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECCBC3D3-122A-4D88-ADBC-BA8B8B98F350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{671B9926-DAFE-4319-8273-75E540F67AD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5445" yWindow="3045" windowWidth="24285" windowHeight="17400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
   <si>
     <t>Date</t>
   </si>
@@ -526,6 +526,17 @@
   <si>
     <t>Improvement:
 Add the dUSD amount burned via the Bot to the nbDToken evaluation</t>
+  </si>
+  <si>
+    <t>3.3.0</t>
+  </si>
+  <si>
+    <t>New feature:
+Evaluations for dUSD measures
+- DEX stabilizing fee
+- Negative interest rate for dUSD loans
+- Block reward part for dUSD burn bot
+- Daily burned dUSD via bot</t>
   </si>
 </sst>
 </file>
@@ -854,10 +865,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C51"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1428,6 +1439,17 @@
         <v>102</v>
       </c>
     </row>
+    <row r="52" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>44871</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/changelogHistory.xlsx
+++ b/data/changelogHistory.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Daten\Kryptowährung\Cake\DefiChainAnalytics\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{671B9926-DAFE-4319-8273-75E540F67AD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AA0AE4D-38AD-45A2-9E80-6C11228232BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5445" yWindow="3045" windowWidth="24285" windowHeight="17400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
   <si>
     <t>Date</t>
   </si>
@@ -537,6 +537,16 @@
 - Negative interest rate for dUSD loans
 - Block reward part for dUSD burn bot
 - Daily burned dUSD via bot</t>
+  </si>
+  <si>
+    <t>New feature:
+- Evaluation of LOCK data for DFI and dUSD
+Improvement:
+- Add missing dToken to evaluations
+- Update CFP list</t>
+  </si>
+  <si>
+    <t>3.4.0</t>
   </si>
 </sst>
 </file>
@@ -865,10 +875,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:C53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1450,6 +1460,17 @@
         <v>104</v>
       </c>
     </row>
+    <row r="53" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>44923</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/changelogHistory.xlsx
+++ b/data/changelogHistory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Daten\Kryptowährung\Cake\DefiChainAnalytics\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AA0AE4D-38AD-45A2-9E80-6C11228232BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ED08CF2-8A03-4D92-B6BA-9CD716D3DE0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25560" yWindow="1635" windowWidth="11430" windowHeight="14565" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>Date</t>
   </si>
@@ -547,6 +547,17 @@
   </si>
   <si>
     <t>3.4.0</t>
+  </si>
+  <si>
+    <t>New feature:
+- Evaluation of Defichain Reddit members
+Improvement:
+- Burned dUSD amount of 2nd burn bot added the number dToken evaluation
+Bug:
+- Correction of 24hr trading volume to handle new dcsETH-dETH pool</t>
+  </si>
+  <si>
+    <t>3.5.0</t>
   </si>
 </sst>
 </file>
@@ -875,10 +886,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C53"/>
+  <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView tabSelected="1" topLeftCell="B52" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1471,6 +1482,17 @@
         <v>105</v>
       </c>
     </row>
+    <row r="54" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>44934</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/changelogHistory.xlsx
+++ b/data/changelogHistory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Daten\Kryptowährung\Cake\DefiChainAnalytics\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ED08CF2-8A03-4D92-B6BA-9CD716D3DE0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECC64E5E-0377-48C4-B735-07B3B7FABE9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25560" yWindow="1635" windowWidth="11430" windowHeight="14565" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>Date</t>
   </si>
@@ -558,6 +558,13 @@
   </si>
   <si>
     <t>3.5.0</t>
+  </si>
+  <si>
+    <t>Bug:
+- Correction burned dUSD amount via auction fee</t>
+  </si>
+  <si>
+    <t>3.5.1</t>
   </si>
 </sst>
 </file>
@@ -886,10 +893,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C54"/>
+  <dimension ref="A1:C55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B52" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1493,6 +1500,14 @@
         <v>107</v>
       </c>
     </row>
+    <row r="55" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B55" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/changelogHistory.xlsx
+++ b/data/changelogHistory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Daten\Kryptowährung\Cake\DefiChainAnalytics\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECC64E5E-0377-48C4-B735-07B3B7FABE9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B3B97F6-9232-4539-8ED5-1839144FE73A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,14 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -895,8 +887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B52" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1501,6 +1493,9 @@
       </c>
     </row>
     <row r="55" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>44941</v>
+      </c>
       <c r="B55" s="2" t="s">
         <v>110</v>
       </c>

--- a/data/changelogHistory.xlsx
+++ b/data/changelogHistory.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Daten\Kryptowährung\Cake\DefiChainAnalytics\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B3B97F6-9232-4539-8ED5-1839144FE73A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CE86E3F-63AB-4F9A-940C-59BA9EDA277A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7020" yWindow="3150" windowWidth="27360" windowHeight="14565" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>Date</t>
   </si>
@@ -557,6 +557,15 @@
   </si>
   <si>
     <t>3.5.1</t>
+  </si>
+  <si>
+    <t>3.5.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Improvement:
+- Add DFI Yield Machine to LOCK evaluation
+Bug:
+- Fix Overall TVL </t>
   </si>
 </sst>
 </file>
@@ -885,10 +894,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C55"/>
+  <dimension ref="A1:C56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56"/>
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1503,6 +1512,17 @@
         <v>109</v>
       </c>
     </row>
+    <row r="56" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>44958</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/changelogHistory.xlsx
+++ b/data/changelogHistory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Daten\Kryptowährung\Cake\DefiChainAnalytics\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CE86E3F-63AB-4F9A-940C-59BA9EDA277A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E89048F0-526E-444D-A6FE-34730C807255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7020" yWindow="3150" windowWidth="27360" windowHeight="14565" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7365" yWindow="3495" windowWidth="27360" windowHeight="14565" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
   <si>
     <t>Date</t>
   </si>
@@ -566,6 +566,13 @@
 - Add DFI Yield Machine to LOCK evaluation
 Bug:
 - Fix Overall TVL </t>
+  </si>
+  <si>
+    <t>3.5.3</t>
+  </si>
+  <si>
+    <t>Improvement:
+- Add 2nd burn bot and DEX stabilization fee to dUSD burn evaluation</t>
   </si>
 </sst>
 </file>
@@ -894,10 +901,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C56"/>
+  <dimension ref="A1:C57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1523,6 +1530,17 @@
         <v>112</v>
       </c>
     </row>
+    <row r="57" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>44961</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/changelogHistory.xlsx
+++ b/data/changelogHistory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Daten\Kryptowährung\Cake\DefiChainAnalytics\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E89048F0-526E-444D-A6FE-34730C807255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F00A5A3F-5610-4736-BC77-243BE9B571C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7365" yWindow="3495" windowWidth="27360" windowHeight="14565" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
   <si>
     <t>Date</t>
   </si>
@@ -573,6 +573,16 @@
   <si>
     <t>Improvement:
 - Add 2nd burn bot and DEX stabilization fee to dUSD burn evaluation</t>
+  </si>
+  <si>
+    <t>3.6.0</t>
+  </si>
+  <si>
+    <t>Improvement:
+- Add new coins dBTC, dETH, dUSDT and dUSDT to LOCK evaluation
+- Add weekly selection for burned dUSD amount in dUSD Measures evaluation
+- Correction of MN numbers evaluation and LOCK added
+- Correction of burned DFI for burn bot usage in Emission evaluation</t>
   </si>
 </sst>
 </file>
@@ -901,10 +911,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C57"/>
+  <dimension ref="A1:C58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+      <selection activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1541,6 +1551,17 @@
         <v>114</v>
       </c>
     </row>
+    <row r="58" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>44983</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/changelogHistory.xlsx
+++ b/data/changelogHistory.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Daten\Kryptowährung\Cake\DefiChainAnalytics\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F00A5A3F-5610-4736-BC77-243BE9B571C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{099C5DE5-F407-4A85-8D4F-EB2E111581DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="119">
   <si>
     <t>Date</t>
   </si>
@@ -583,6 +583,14 @@
 - Add weekly selection for burned dUSD amount in dUSD Measures evaluation
 - Correction of MN numbers evaluation and LOCK added
 - Correction of burned DFI for burn bot usage in Emission evaluation</t>
+  </si>
+  <si>
+    <t>3.7.0</t>
+  </si>
+  <si>
+    <t>Improvement:
+- Add new stablecoin EUROC to evaluations
+- Add new dToken BITI, NSRGY, SH, SHEL to evaluations</t>
   </si>
 </sst>
 </file>
@@ -911,10 +919,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C58"/>
+  <dimension ref="A1:C59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="C69" sqref="C69"/>
+      <selection activeCell="C67" sqref="C66:C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1562,6 +1570,17 @@
         <v>116</v>
       </c>
     </row>
+    <row r="59" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>45003</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/changelogHistory.xlsx
+++ b/data/changelogHistory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Daten\Kryptowährung\Cake\DefiChainAnalytics\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{099C5DE5-F407-4A85-8D4F-EB2E111581DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EB9191E-E2C3-4E23-A897-6FC9D58A2F6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6975" yWindow="1965" windowWidth="27360" windowHeight="16815" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="121">
   <si>
     <t>Date</t>
   </si>
@@ -591,6 +591,13 @@
     <t>Improvement:
 - Add new stablecoin EUROC to evaluations
 - Add new dToken BITI, NSRGY, SH, SHEL to evaluations</t>
+  </si>
+  <si>
+    <t>3.8.0</t>
+  </si>
+  <si>
+    <t>Improvement:
+- Add new buy-and-burn-bot to "Number dToken" and "dUSD Measures" evaluation</t>
   </si>
 </sst>
 </file>
@@ -919,10 +926,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C59"/>
+  <dimension ref="A1:C60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="C67" sqref="C66:C67"/>
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1581,6 +1588,17 @@
         <v>118</v>
       </c>
     </row>
+    <row r="60" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>45005</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/changelogHistory.xlsx
+++ b/data/changelogHistory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Daten\Kryptowährung\Cake\DefiChainAnalytics\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EB9191E-E2C3-4E23-A897-6FC9D58A2F6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD5CCA7E-981E-4125-8708-2E33A24847CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6975" yWindow="1965" windowWidth="27360" windowHeight="16815" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5475" yWindow="1500" windowWidth="27360" windowHeight="16815" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="123">
   <si>
     <t>Date</t>
   </si>
@@ -598,6 +598,15 @@
   <si>
     <t>Improvement:
 - Add new buy-and-burn-bot to "Number dToken" and "dUSD Measures" evaluation</t>
+  </si>
+  <si>
+    <t>3.9.0</t>
+  </si>
+  <si>
+    <t>Improvement:
+- Add algo dToken line to Number dToken evaluation
+Bug:
+- Correct missing values in Vault TVL representation</t>
   </si>
 </sst>
 </file>
@@ -926,10 +935,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C60"/>
+  <dimension ref="A1:C61"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="C61" sqref="C61"/>
+      <selection activeCell="H61" sqref="H61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1599,6 +1608,17 @@
         <v>120</v>
       </c>
     </row>
+    <row r="61" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>45011</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/changelogHistory.xlsx
+++ b/data/changelogHistory.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Daten\Kryptowährung\Cake\DefiChainAnalytics\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD5CCA7E-981E-4125-8708-2E33A24847CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBA3EBFD-068F-413D-9BA0-0FAD69AFB86E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5475" yWindow="1500" windowWidth="27360" windowHeight="16815" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="127">
   <si>
     <t>Date</t>
   </si>
@@ -607,6 +607,25 @@
 - Add algo dToken line to Number dToken evaluation
 Bug:
 - Correct missing values in Vault TVL representation</t>
+  </si>
+  <si>
+    <t>3.9.1</t>
+  </si>
+  <si>
+    <t>Improvement:
+- Update CFP list with on-chain voting results
+Bug:
+- Correct wrong Vault TVL value in the Overall TVL evaluation
+- Correct missing overall TVL line at beginning of Vault TVL evaluation
+- Handling missing values in Vault TVL</t>
+  </si>
+  <si>
+    <t>3.10.0</t>
+  </si>
+  <si>
+    <t>Improvement:
+- Update CFP list
+- Add new staking coins (SOL, DOT, MATIC, SUI) to evaluations</t>
   </si>
 </sst>
 </file>
@@ -935,10 +954,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C61"/>
+  <dimension ref="A1:C63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="H61" sqref="H61"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1619,6 +1638,28 @@
         <v>122</v>
       </c>
     </row>
+    <row r="62" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>45054</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>45172</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/changelogHistory.xlsx
+++ b/data/changelogHistory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Daten\Kryptowährung\Cake\DefiChainAnalytics\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBA3EBFD-068F-413D-9BA0-0FAD69AFB86E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8E9350D-D13A-425B-9646-C5738A4E6B56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5835" yWindow="2550" windowWidth="27360" windowHeight="12315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
   <si>
     <t>Date</t>
   </si>
@@ -626,6 +626,13 @@
     <t>Improvement:
 - Update CFP list
 - Add new staking coins (SOL, DOT, MATIC, SUI) to evaluations</t>
+  </si>
+  <si>
+    <t>3.10.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bug:
+- Fix not working update of of dUSD burn rate evaluation </t>
   </si>
 </sst>
 </file>
@@ -954,10 +961,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C63"/>
+  <dimension ref="A1:C64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C64" sqref="C64"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1660,6 +1667,17 @@
         <v>126</v>
       </c>
     </row>
+    <row r="64" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>45173</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/changelogHistory.xlsx
+++ b/data/changelogHistory.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Daten\Kryptowährung\Cake\DefiChainAnalytics\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8E9350D-D13A-425B-9646-C5738A4E6B56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7C0BE92-8509-4118-B198-6D3AB0A007E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5835" yWindow="2550" windowWidth="27360" windowHeight="12315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4380" yWindow="4140" windowWidth="27360" windowHeight="12315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="133">
   <si>
     <t>Date</t>
   </si>
@@ -632,7 +632,26 @@
   </si>
   <si>
     <t xml:space="preserve">Bug:
-- Fix not working update of of dUSD burn rate evaluation </t>
+- Fix not working update of dUSD burn rate evaluation </t>
+  </si>
+  <si>
+    <t>3.10.2</t>
+  </si>
+  <si>
+    <t>Bug:
+- Fix missing DFI amount of staking coin LM-pools</t>
+  </si>
+  <si>
+    <t>3.11.0</t>
+  </si>
+  <si>
+    <t>New feature:
+Evaluation of  minted and burned token via Futures Swap for
+- Overall
+- dUSD
+- dToken
+Improvement:
+- Remove no longer working DFX evaluation</t>
   </si>
 </sst>
 </file>
@@ -961,10 +980,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C64"/>
+  <dimension ref="A1:C66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="C70" sqref="C70"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1678,6 +1697,28 @@
         <v>128</v>
       </c>
     </row>
+    <row r="65" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>45185</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>45200</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/changelogHistory.xlsx
+++ b/data/changelogHistory.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Daten\Kryptowährung\Cake\DefiChainAnalytics\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7C0BE92-8509-4118-B198-6D3AB0A007E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2607A156-C6A6-40A3-AD6B-7C2C3E05823E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4380" yWindow="4140" windowWidth="27360" windowHeight="12315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34230" yWindow="5730" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
   <si>
     <t>Date</t>
   </si>
@@ -652,6 +652,16 @@
 - dToken
 Improvement:
 - Remove no longer working DFX evaluation</t>
+  </si>
+  <si>
+    <t>4.0.0.</t>
+  </si>
+  <si>
+    <t>New feature:
+- Evaluation of transferred token to MetaChain
+- Evaluation of paid fees on MetaChain
+Improvement:
+- Add DFI on MetaChain to Overview evaluation</t>
   </si>
 </sst>
 </file>
@@ -980,10 +990,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C66"/>
+  <dimension ref="A1:C67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="C66" sqref="C66"/>
+      <selection activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1719,6 +1729,17 @@
         <v>132</v>
       </c>
     </row>
+    <row r="67" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>45247</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
